--- a/data/random_lines_ext/bs_auto3.xlsx
+++ b/data/random_lines_ext/bs_auto3.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7703184713375796</v>
+        <v>0.5811363636363637</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>309.7103807324841</v>
+        <v>347846009.9204546</v>
       </c>
     </row>
   </sheetData>
